--- a/m1/UnityProject/Assets/Scene/9000_Test/doc/TouchDstControl.xlsx
+++ b/m1/UnityProject/Assets/Scene/9000_Test/doc/TouchDstControl.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDAE9D0A-5A77-4543-B0AE-4267AF422444}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B349BF-4203-437A-BB3B-A4F2063523E3}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -228,13 +228,263 @@
     <t>100005</t>
   </si>
   <si>
-    <t>dst_move();</t>
-  </si>
-  <si>
     <t>dst_done()</t>
   </si>
   <si>
-    <t xml:space="preserve">; The setting was created automatically. 2018/06/17 11:52:30
+    <t xml:space="preserve">:output=TouchDstControl_created.cs_x000D_
+::tempfunc=template-func.txt_x000D_
+:enc=utf-8_x000D_
+::_x000D_
+public partial class TouchDstControl : StateManager {_x000D_
+    $contents2$_x000D_
+}_x000D_
+</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t xml:space="preserve">/*_x000D_
+    [[state]]_x000D_
+    [[state-cmt]]_x000D_
+*/_x000D_
+void [[state]](bool bFirst)_x000D_
+{_x000D_
+    if (bFirst)_x000D_
+    {_x000D_
+        [[init]]_x000D_
+    }_x000D_
+_x000D_
+    [[update]]_x000D_
+_x000D_
+    &lt;&lt;&lt;?wait_x000D_
+    if (![[wait]]) return;_x000D_
+    &gt;&gt;&gt;_x000D_
+_x000D_
+    [[post_wait]]_x000D_
+_x000D_
+    [[branch]]_x000D_
+_x000D_
+    &lt;&lt;&lt;?nextstate        _x000D_
+    if (!HasNextState())_x000D_
+    {_x000D_
+        SetNextState([[nextstate]]);_x000D_
+    }_x000D_
+    &gt;&gt;&gt;_x000D_
+_x000D_
+    if (HasNextState())_x000D_
+    {_x000D_
+        &lt;&lt;&lt;?nowait_x000D_
+            NoWait();_x000D_
+        &gt;&gt;&gt;_x000D_
+_x000D_
+        GoNextState();_x000D_
+    }_x000D_
+}_x000D_
+</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[setting]_x000D_
+_x000D_
+converter=ExcelStateChartConverter.exe_x000D_
+_x000D_
+viewbat=TouchDstControl_view.bat_x000D_
+xls=TouchDstControl.xlsx_x000D_
+sub_src=TouchDstControl.cs_x000D_
+gen_src=TouchDstControl_created.cs_x000D_
+_x000D_
+manager_src=StateManager.cs_x000D_
+manager_dir=base_x000D_
+_x000D_
+template_src=template-source.txt_x000D_
+template_func=template-statefunc.txt_x000D_
+_x000D_
+help=help.ini_x000D_
+_x000D_
+[setupinfo]_x000D_
+_x000D_
+lang=c#_x000D_
+framework=_x000D_
+_x000D_
+prefix=TouchDst_x000D_
+xlsdir=C:\Users\gea01\Documents\EscapeFromMars\m1\UnityProject\Assets\Scene\9000_Test\doc_x000D_
+gendir=C:\Users\gea01\Documents\EscapeFromMars\m1\UnityProject\Assets\Scene\9000_Test\sc_x000D_
+genrdir=..\sc_x000D_
+_x000D_
+[jpn]_x000D_
+title=C# サンプル 1_x000D_
+_x000D_
+detail=@@@_x000D_
+ステートマシンを構成するファイルを作成します。_x000D_
+# ドキュメントとビュアー_x000D_
+  フォルダ: _x000D_
+      C:\Users\gea01\Documents\EscapeFromMars\m1\UnityProject\Assets\Scene\9000_Test\doc_x000D_
+  ファイル:_x000D_
+      TouchDstControl.xlsx_x000D_
+      TouchDstControl_view.bat_x000D_
+# ソース_x000D_
+  フォルダ:_x000D_
+      C:\Users\gea01\Documents\EscapeFromMars\m1\UnityProject\Assets\Scene\9000_Test\sc_x000D_
+  ファイル:_x000D_
+      TouchDstControl.cs  _x000D_
+      TouchDstControl_created.cs_x000D_
+  ※共通管理ソース_x000D_
+  フォルダ:_x000D_
+      C:\Users\gea01\Documents\EscapeFromMars\m1\UnityProject\Assets\Scene\9000_Test\sc/base_x000D_
+  ファイル:_x000D_
+      StateManager.cs_x000D_
+  _x000D_
+[2018.6.12]_x000D_
+@@@_x000D_
+_x000D_
+_x000D_
+[en]_x000D_
+title=C# Sample 1_x000D_
+_x000D_
+detail=@@@_x000D_
+The files to implement a state machine will be created. _x000D_
+# Document and viewer_x000D_
+  Folder: _x000D_
+      C:\Users\gea01\Documents\EscapeFromMars\m1\UnityProject\Assets\Scene\9000_Test\doc_x000D_
+  File:_x000D_
+      TouchDstControl.xlsx_x000D_
+      TouchDstControl_view.bat_x000D_
+# Source_x000D_
+  Folder:_x000D_
+      C:\Users\gea01\Documents\EscapeFromMars\m1\UnityProject\Assets\Scene\9000_Test\sc_x000D_
+　File:_x000D_
+      TouchDstControl.cs_x000D_
+      TouchDstControl_created.cs_x000D_
+  ※Common Management Source_x000D_
+  Folder:_x000D_
+      C:\Users\gea01\Documents\EscapeFromMars\m1\UnityProject\Assets\Scene\9000_Test\sc/base_x000D_
+  File:_x000D_
+      StateManager.cs _x000D_
+_x000D_
+[2018.6.12]_x000D_
+@@@_x000D_
+_x000D_
+</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>; -----_x000D_
+; 項目説明_x000D_
+; -----_x000D_
+_x000D_
+[state]_x000D_
+jpn=@@@_x000D_
+ステート名を指定する。_x000D_
+英文字、数字、アンダーバーで構成される。_x000D_
+先頭は英文字およびアンダーバー。_x000D_
+@@@_x000D_
+en=@@@_x000D_
+Specify a state name._x000D_
+The state name consits of alphabet, number and underbar except that the head characther should be alphabet or a underbar._x000D_
+@@@_x000D_
+_x000D_
+[thumbnail]_x000D_
+jpn=@@@_x000D_
+説明用のイメージを指定する。_x000D_
+@@@_x000D_
+en=@@@_x000D_
+Specify a image for explanation of this state._x000D_
+@@@_x000D_
+_x000D_
+[init]_x000D_
+jpn=@@@_x000D_
+初期化用処理を指定する。_x000D_
+@@@_x000D_
+en=@@@_x000D_
+Specify a initial process._x000D_
+@@@_x000D_
+_x000D_
+[update]_x000D_
+jpn=@@@_x000D_
+更新処理を指定する。_x000D_
+@@@_x000D_
+en=@@@_x000D_
+Specify a update process._x000D_
+@@@_x000D_
+_x000D_
+[wait]_x000D_
+jpn=@@@_x000D_
+待ち条件を指定する。_x000D_
+true時にループを解除する。_x000D_
+@@@_x000D_
+en=@@@_x000D_
+Specify a waiting condition._x000D_
+Release the loop if the condition is true._x000D_
+@@@_x000D_
+_x000D_
+[post_wait]_x000D_
+jpn=@@@_x000D_
+'wait'後の処理を指定する。_x000D_
+@@@_x000D_
+en=@@@_x000D_
+Specify the post process after 'wait'._x000D_
+@@@_x000D_
+_x000D_
+[branch]_x000D_
+jpn=@@@_x000D_
+分岐処理を指定する。_x000D_
+１行に一つの分岐命令を書く。_x000D_
+GUIにより上書きされるため引数は適当に指定する。_x000D_
+例）_x000D_
+br_YES(?);_x000D_
+br_NO(?);_x000D_
+br_UNKNOWN(?);_x000D_
+@@@_x000D_
+en=@@@_x000D_
+Specify branch functions._x000D_
+Each line has a branch function._x000D_
+Specify a tentavie parameter for each branch function because GUI overwrites the parameter._x000D_
+i.e)_x000D_
+br_YES(?);_x000D_
+br_NO(?);_x000D_
+br_UNKNOWN(?);_x000D_
+@@@_x000D_
+_x000D_
+[nextstate]_x000D_
+jpn=@@@_x000D_
+次に実行するステートを指定する。_x000D_
+@@@_x000D_
+en=@@@_x000D_
+Specify the next state to be executed._x000D_
+@@@_x000D_
+_x000D_
+[nowait]_x000D_
+jpn=@@@_x000D_
+次のステートへ同期待ちをせず実行する時に 'yes'を指定する。_x000D_
+同期待ち時には何も指定しない。_x000D_
+@@@_x000D_
+en=@@@_x000D_
+Specify 'yes' if the next state will be execute without a sync wait._x000D_
+Do not specify any word wheh the next state will be execute with a sync wait._x000D_
+@@@_x000D_
+_x000D_
+[!dir]_x000D_
+jpn=@@@_x000D_
+システムがステートのディレクトリ指定に使用。_x000D_
+@@@_x000D_
+en=@@@_x000D_
+System uses this for the directory path of the state._x000D_
+@@@_x000D_
+_x000D_
+[!uuid]_x000D_
+jpn=@@@_x000D_
+システムがステートのuuid指定に使用。_x000D_
+@@@_x000D_
+en=@@@_x000D_
+System uses this for the uuid of the state._x000D_
+@@@</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>dst_move(0.1f);</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t xml:space="preserve">; The setting was created automatically. 2018/06/20 20:19:06
 xlsfile=@@@
 TouchDstControl.xlsx
 @@@
@@ -263,254 +513,6 @@
 option_delete_thisstring=0
 option_delete_br_string=0
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">:output=TouchDstControl_created.cs_x000D_
-::tempfunc=template-func.txt_x000D_
-:enc=utf-8_x000D_
-::_x000D_
-public partial class TouchDstControl : StateManager {_x000D_
-    $contents2$_x000D_
-}_x000D_
-</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t xml:space="preserve">/*_x000D_
-    [[state]]_x000D_
-    [[state-cmt]]_x000D_
-*/_x000D_
-void [[state]](bool bFirst)_x000D_
-{_x000D_
-    if (bFirst)_x000D_
-    {_x000D_
-        [[init]]_x000D_
-    }_x000D_
-_x000D_
-    [[update]]_x000D_
-_x000D_
-    &lt;&lt;&lt;?wait_x000D_
-    if (![[wait]]) return;_x000D_
-    &gt;&gt;&gt;_x000D_
-_x000D_
-    [[post_wait]]_x000D_
-_x000D_
-    [[branch]]_x000D_
-_x000D_
-    &lt;&lt;&lt;?nextstate        _x000D_
-    if (!HasNextState())_x000D_
-    {_x000D_
-        SetNextState([[nextstate]]);_x000D_
-    }_x000D_
-    &gt;&gt;&gt;_x000D_
-_x000D_
-    if (HasNextState())_x000D_
-    {_x000D_
-        &lt;&lt;&lt;?nowait_x000D_
-            NoWait();_x000D_
-        &gt;&gt;&gt;_x000D_
-_x000D_
-        GoNextState();_x000D_
-    }_x000D_
-}_x000D_
-</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t xml:space="preserve">[setting]_x000D_
-_x000D_
-converter=ExcelStateChartConverter.exe_x000D_
-_x000D_
-viewbat=TouchDstControl_view.bat_x000D_
-xls=TouchDstControl.xlsx_x000D_
-sub_src=TouchDstControl.cs_x000D_
-gen_src=TouchDstControl_created.cs_x000D_
-_x000D_
-manager_src=StateManager.cs_x000D_
-manager_dir=base_x000D_
-_x000D_
-template_src=template-source.txt_x000D_
-template_func=template-statefunc.txt_x000D_
-_x000D_
-help=help.ini_x000D_
-_x000D_
-[setupinfo]_x000D_
-_x000D_
-lang=c#_x000D_
-framework=_x000D_
-_x000D_
-prefix=TouchDst_x000D_
-xlsdir=C:\Users\gea01\Documents\EscapeFromMars\m1\UnityProject\Assets\Scene\9000_Test\doc_x000D_
-gendir=C:\Users\gea01\Documents\EscapeFromMars\m1\UnityProject\Assets\Scene\9000_Test\sc_x000D_
-genrdir=..\sc_x000D_
-_x000D_
-[jpn]_x000D_
-title=C# サンプル 1_x000D_
-_x000D_
-detail=@@@_x000D_
-ステートマシンを構成するファイルを作成します。_x000D_
-# ドキュメントとビュアー_x000D_
-  フォルダ: _x000D_
-      C:\Users\gea01\Documents\EscapeFromMars\m1\UnityProject\Assets\Scene\9000_Test\doc_x000D_
-  ファイル:_x000D_
-      TouchDstControl.xlsx_x000D_
-      TouchDstControl_view.bat_x000D_
-# ソース_x000D_
-  フォルダ:_x000D_
-      C:\Users\gea01\Documents\EscapeFromMars\m1\UnityProject\Assets\Scene\9000_Test\sc_x000D_
-  ファイル:_x000D_
-      TouchDstControl.cs  _x000D_
-      TouchDstControl_created.cs_x000D_
-  ※共通管理ソース_x000D_
-  フォルダ:_x000D_
-      C:\Users\gea01\Documents\EscapeFromMars\m1\UnityProject\Assets\Scene\9000_Test\sc/base_x000D_
-  ファイル:_x000D_
-      StateManager.cs_x000D_
-  _x000D_
-[2018.6.12]_x000D_
-@@@_x000D_
-_x000D_
-_x000D_
-[en]_x000D_
-title=C# Sample 1_x000D_
-_x000D_
-detail=@@@_x000D_
-The files to implement a state machine will be created. _x000D_
-# Document and viewer_x000D_
-  Folder: _x000D_
-      C:\Users\gea01\Documents\EscapeFromMars\m1\UnityProject\Assets\Scene\9000_Test\doc_x000D_
-  File:_x000D_
-      TouchDstControl.xlsx_x000D_
-      TouchDstControl_view.bat_x000D_
-# Source_x000D_
-  Folder:_x000D_
-      C:\Users\gea01\Documents\EscapeFromMars\m1\UnityProject\Assets\Scene\9000_Test\sc_x000D_
-　File:_x000D_
-      TouchDstControl.cs_x000D_
-      TouchDstControl_created.cs_x000D_
-  ※Common Management Source_x000D_
-  Folder:_x000D_
-      C:\Users\gea01\Documents\EscapeFromMars\m1\UnityProject\Assets\Scene\9000_Test\sc/base_x000D_
-  File:_x000D_
-      StateManager.cs _x000D_
-_x000D_
-[2018.6.12]_x000D_
-@@@_x000D_
-_x000D_
-</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>; -----_x000D_
-; 項目説明_x000D_
-; -----_x000D_
-_x000D_
-[state]_x000D_
-jpn=@@@_x000D_
-ステート名を指定する。_x000D_
-英文字、数字、アンダーバーで構成される。_x000D_
-先頭は英文字およびアンダーバー。_x000D_
-@@@_x000D_
-en=@@@_x000D_
-Specify a state name._x000D_
-The state name consits of alphabet, number and underbar except that the head characther should be alphabet or a underbar._x000D_
-@@@_x000D_
-_x000D_
-[thumbnail]_x000D_
-jpn=@@@_x000D_
-説明用のイメージを指定する。_x000D_
-@@@_x000D_
-en=@@@_x000D_
-Specify a image for explanation of this state._x000D_
-@@@_x000D_
-_x000D_
-[init]_x000D_
-jpn=@@@_x000D_
-初期化用処理を指定する。_x000D_
-@@@_x000D_
-en=@@@_x000D_
-Specify a initial process._x000D_
-@@@_x000D_
-_x000D_
-[update]_x000D_
-jpn=@@@_x000D_
-更新処理を指定する。_x000D_
-@@@_x000D_
-en=@@@_x000D_
-Specify a update process._x000D_
-@@@_x000D_
-_x000D_
-[wait]_x000D_
-jpn=@@@_x000D_
-待ち条件を指定する。_x000D_
-true時にループを解除する。_x000D_
-@@@_x000D_
-en=@@@_x000D_
-Specify a waiting condition._x000D_
-Release the loop if the condition is true._x000D_
-@@@_x000D_
-_x000D_
-[post_wait]_x000D_
-jpn=@@@_x000D_
-'wait'後の処理を指定する。_x000D_
-@@@_x000D_
-en=@@@_x000D_
-Specify the post process after 'wait'._x000D_
-@@@_x000D_
-_x000D_
-[branch]_x000D_
-jpn=@@@_x000D_
-分岐処理を指定する。_x000D_
-１行に一つの分岐命令を書く。_x000D_
-GUIにより上書きされるため引数は適当に指定する。_x000D_
-例）_x000D_
-br_YES(?);_x000D_
-br_NO(?);_x000D_
-br_UNKNOWN(?);_x000D_
-@@@_x000D_
-en=@@@_x000D_
-Specify branch functions._x000D_
-Each line has a branch function._x000D_
-Specify a tentavie parameter for each branch function because GUI overwrites the parameter._x000D_
-i.e)_x000D_
-br_YES(?);_x000D_
-br_NO(?);_x000D_
-br_UNKNOWN(?);_x000D_
-@@@_x000D_
-_x000D_
-[nextstate]_x000D_
-jpn=@@@_x000D_
-次に実行するステートを指定する。_x000D_
-@@@_x000D_
-en=@@@_x000D_
-Specify the next state to be executed._x000D_
-@@@_x000D_
-_x000D_
-[nowait]_x000D_
-jpn=@@@_x000D_
-次のステートへ同期待ちをせず実行する時に 'yes'を指定する。_x000D_
-同期待ち時には何も指定しない。_x000D_
-@@@_x000D_
-en=@@@_x000D_
-Specify 'yes' if the next state will be execute without a sync wait._x000D_
-Do not specify any word wheh the next state will be execute with a sync wait._x000D_
-@@@_x000D_
-_x000D_
-[!dir]_x000D_
-jpn=@@@_x000D_
-システムがステートのディレクトリ指定に使用。_x000D_
-@@@_x000D_
-en=@@@_x000D_
-System uses this for the directory path of the state._x000D_
-@@@_x000D_
-_x000D_
-[!uuid]_x000D_
-jpn=@@@_x000D_
-システムがステートのuuid指定に使用。_x000D_
-@@@_x000D_
-en=@@@_x000D_
-System uses this for the uuid of the state._x000D_
-@@@</t>
     <phoneticPr fontId="13"/>
   </si>
 </sst>
@@ -1380,7 +1382,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="409.5">
       <c r="A1" s="44" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1399,7 +1401,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="409.5">
       <c r="A1" s="44" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1419,7 +1421,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="409.5">
       <c r="A1" s="44" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1438,7 +1440,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="409.5">
       <c r="A1" s="44" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1457,7 +1459,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="409.5">
       <c r="A1" s="44" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1580,7 +1582,7 @@
         <v>29</v>
       </c>
       <c r="H6" s="49" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1621,7 +1623,7 @@
         <v>31</v>
       </c>
       <c r="H10" s="49" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:8">
